--- a/MavenBook/src/test/resources/Items.xlsx
+++ b/MavenBook/src/test/resources/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -58,10 +58,16 @@
     <t>EAN Code</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>pcs</t>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Kivi</t>
+  </si>
+  <si>
+    <t>Box</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,19 +486,34 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>234</v>
       </c>
+      <c r="C2">
+        <v>465</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">

--- a/MavenBook/src/test/resources/Items.xlsx
+++ b/MavenBook/src/test/resources/Items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -64,10 +64,16 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Kivi</t>
-  </si>
-  <si>
     <t>Box</t>
+  </si>
+  <si>
+    <t>Selling Desc</t>
+  </si>
+  <si>
+    <t>Pur Desc</t>
+  </si>
+  <si>
+    <t>Pear</t>
   </si>
 </sst>
 </file>
@@ -418,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,13 +492,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C2">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -504,16 +510,28 @@
         <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2">
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>41</v>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
